--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.502653</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H2">
-        <v>43.50795899999999</v>
+        <v>72.320345</v>
       </c>
       <c r="I2">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J2">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.692291666666666</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N2">
-        <v>26.076875</v>
+        <v>22.415874</v>
       </c>
       <c r="O2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P2">
-        <v>0.7904374164682153</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q2">
-        <v>126.0612898164583</v>
+        <v>180.1248601285033</v>
       </c>
       <c r="R2">
-        <v>1134.551608348125</v>
+        <v>1621.12374115653</v>
       </c>
       <c r="S2">
-        <v>0.07400439671941407</v>
+        <v>0.1012423342826858</v>
       </c>
       <c r="T2">
-        <v>0.07400439671941407</v>
+        <v>0.1012423342826858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.502653</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H3">
-        <v>43.50795899999999</v>
+        <v>72.320345</v>
       </c>
       <c r="I3">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J3">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.376338</v>
       </c>
       <c r="O3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P3">
-        <v>0.01140748791558863</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q3">
-        <v>1.819299808237999</v>
+        <v>3.024099332956667</v>
       </c>
       <c r="R3">
-        <v>16.37369827414199</v>
+        <v>27.21689399661</v>
       </c>
       <c r="S3">
-        <v>0.001068021634210036</v>
+        <v>0.001699748026745574</v>
       </c>
       <c r="T3">
-        <v>0.001068021634210036</v>
+        <v>0.001699748026745574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.502653</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H4">
-        <v>43.50795899999999</v>
+        <v>72.320345</v>
       </c>
       <c r="I4">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J4">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.09408700000000002</v>
+        <v>0.148662</v>
       </c>
       <c r="N4">
-        <v>0.282261</v>
+        <v>0.445986</v>
       </c>
       <c r="O4">
-        <v>0.00855584327530561</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P4">
-        <v>0.008555843275305609</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q4">
-        <v>1.364511112811</v>
+        <v>3.58376237613</v>
       </c>
       <c r="R4">
-        <v>12.280600015299</v>
+        <v>32.25386138517</v>
       </c>
       <c r="S4">
-        <v>0.000801037510147153</v>
+        <v>0.002014316448129478</v>
       </c>
       <c r="T4">
-        <v>0.0008010375101471528</v>
+        <v>0.002014316448129478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.502653</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H5">
-        <v>43.50795899999999</v>
+        <v>72.320345</v>
       </c>
       <c r="I5">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J5">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04400233333333333</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N5">
-        <v>0.132007</v>
+        <v>0.047879</v>
       </c>
       <c r="O5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P5">
-        <v>0.004001371791509515</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q5">
-        <v>0.6381505715236665</v>
+        <v>0.3847361998061111</v>
       </c>
       <c r="R5">
-        <v>5.743355143712998</v>
+        <v>3.462625798255</v>
       </c>
       <c r="S5">
-        <v>0.0003746268829274862</v>
+        <v>0.0002162477235159653</v>
       </c>
       <c r="T5">
-        <v>0.0003746268829274862</v>
+        <v>0.0002162477235159653</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.502653</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H6">
-        <v>43.50795899999999</v>
+        <v>72.320345</v>
       </c>
       <c r="I6">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J6">
-        <v>0.09362461236978892</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.040985</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N6">
-        <v>6.122955</v>
+        <v>6.437662</v>
       </c>
       <c r="O6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P6">
-        <v>0.1855978805493811</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q6">
-        <v>29.599697233205</v>
+        <v>51.73043742593222</v>
       </c>
       <c r="R6">
-        <v>266.3972750988449</v>
+        <v>465.57393683339</v>
       </c>
       <c r="S6">
-        <v>0.01737652962309019</v>
+        <v>0.02907599891946858</v>
       </c>
       <c r="T6">
-        <v>0.01737652962309019</v>
+        <v>0.02907599891946858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.84575</v>
+        <v>24.10678166666667</v>
       </c>
       <c r="H7">
-        <v>119.53725</v>
+        <v>72.320345</v>
       </c>
       <c r="I7">
-        <v>0.2572317560334318</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="J7">
-        <v>0.2572317560334317</v>
+        <v>0.1351009899647811</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>8.692291666666666</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N7">
-        <v>26.076875</v>
+        <v>0.188716</v>
       </c>
       <c r="O7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P7">
-        <v>0.7904374164682153</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q7">
-        <v>346.3508806770833</v>
+        <v>1.516445136335555</v>
       </c>
       <c r="R7">
-        <v>3117.15792609375</v>
+        <v>13.64800622702</v>
       </c>
       <c r="S7">
-        <v>0.2033256046726481</v>
+        <v>0.0008523445642356545</v>
       </c>
       <c r="T7">
-        <v>0.203325604672648</v>
+        <v>0.0008523445642356545</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>119.53725</v>
       </c>
       <c r="I8">
-        <v>0.2572317560334318</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J8">
-        <v>0.2572317560334317</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.125446</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N8">
-        <v>0.376338</v>
+        <v>22.415874</v>
       </c>
       <c r="O8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P8">
-        <v>0.01140748791558863</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q8">
-        <v>4.998489954499999</v>
+        <v>297.7257704785</v>
       </c>
       <c r="R8">
-        <v>44.9864095905</v>
+        <v>2679.5319343065</v>
       </c>
       <c r="S8">
-        <v>0.002934368148457015</v>
+        <v>0.1673419868742742</v>
       </c>
       <c r="T8">
-        <v>0.002934368148457014</v>
+        <v>0.1673419868742743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>119.53725</v>
       </c>
       <c r="I9">
-        <v>0.2572317560334318</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J9">
-        <v>0.2572317560334317</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.09408700000000002</v>
+        <v>0.125446</v>
       </c>
       <c r="N9">
-        <v>0.282261</v>
+        <v>0.376338</v>
       </c>
       <c r="O9">
-        <v>0.00855584327530561</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P9">
-        <v>0.008555843275305609</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q9">
-        <v>3.748967080250001</v>
+        <v>4.998489954499999</v>
       </c>
       <c r="R9">
-        <v>33.74070372225</v>
+        <v>44.9864095905</v>
       </c>
       <c r="S9">
-        <v>0.002200834590053691</v>
+        <v>0.00280948887633338</v>
       </c>
       <c r="T9">
-        <v>0.00220083459005369</v>
+        <v>0.00280948887633338</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>119.53725</v>
       </c>
       <c r="I10">
-        <v>0.2572317560334318</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J10">
-        <v>0.2572317560334317</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.04400233333333333</v>
+        <v>0.148662</v>
       </c>
       <c r="N10">
-        <v>0.132007</v>
+        <v>0.445986</v>
       </c>
       <c r="O10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P10">
-        <v>0.004001371791509515</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q10">
-        <v>1.753305973416667</v>
+        <v>5.923548886499999</v>
       </c>
       <c r="R10">
-        <v>15.77975376075</v>
+        <v>53.31193997849999</v>
       </c>
       <c r="S10">
-        <v>0.001029279892472632</v>
+        <v>0.003329434460512673</v>
       </c>
       <c r="T10">
-        <v>0.001029279892472631</v>
+        <v>0.003329434460512674</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>119.53725</v>
       </c>
       <c r="I11">
-        <v>0.2572317560334318</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J11">
-        <v>0.2572317560334317</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>2.040985</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N11">
-        <v>6.122955</v>
+        <v>0.047879</v>
       </c>
       <c r="O11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P11">
-        <v>0.1855978805493811</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q11">
-        <v>81.32457806375001</v>
+        <v>0.6359248880833333</v>
       </c>
       <c r="R11">
-        <v>731.9212025737501</v>
+        <v>5.723323992749999</v>
       </c>
       <c r="S11">
-        <v>0.0477416687298004</v>
+        <v>0.0003574327277871644</v>
       </c>
       <c r="T11">
-        <v>0.04774166872980039</v>
+        <v>0.0003574327277871644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.009064</v>
+        <v>39.84575</v>
       </c>
       <c r="H12">
-        <v>75.02719199999999</v>
+        <v>119.53725</v>
       </c>
       <c r="I12">
-        <v>0.1614507306167529</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J12">
-        <v>0.1614507306167529</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.692291666666666</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N12">
-        <v>26.076875</v>
+        <v>6.437662</v>
       </c>
       <c r="O12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P12">
-        <v>0.7904374164682153</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q12">
-        <v>217.3860785983333</v>
+        <v>85.50449021216664</v>
       </c>
       <c r="R12">
-        <v>1956.474707384999</v>
+        <v>769.5404119094999</v>
       </c>
       <c r="S12">
-        <v>0.1276166983956119</v>
+        <v>0.04805929717061284</v>
       </c>
       <c r="T12">
-        <v>0.1276166983956119</v>
+        <v>0.04805929717061285</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.009064</v>
+        <v>39.84575</v>
       </c>
       <c r="H13">
-        <v>75.02719199999999</v>
+        <v>119.53725</v>
       </c>
       <c r="I13">
-        <v>0.1614507306167529</v>
+        <v>0.2233064680853987</v>
       </c>
       <c r="J13">
-        <v>0.1614507306167529</v>
+        <v>0.2233064680853988</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.125446</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N13">
-        <v>0.376338</v>
+        <v>0.188716</v>
       </c>
       <c r="O13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P13">
-        <v>0.01140748791558863</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q13">
-        <v>3.137287042543999</v>
+        <v>2.506510185666666</v>
       </c>
       <c r="R13">
-        <v>28.23558338289599</v>
+        <v>22.558591671</v>
       </c>
       <c r="S13">
-        <v>0.001841747258473563</v>
+        <v>0.001408827975878413</v>
       </c>
       <c r="T13">
-        <v>0.001841747258473563</v>
+        <v>0.001408827975878413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.009064</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H14">
-        <v>75.02719199999999</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I14">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J14">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.09408700000000002</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N14">
-        <v>0.282261</v>
+        <v>22.415874</v>
       </c>
       <c r="O14">
-        <v>0.00855584327530561</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P14">
-        <v>0.008555843275305609</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q14">
-        <v>2.353027804568</v>
+        <v>247.4183450067073</v>
       </c>
       <c r="R14">
-        <v>21.177250241112</v>
+        <v>2226.765105060366</v>
       </c>
       <c r="S14">
-        <v>0.001381347147840523</v>
+        <v>0.1390658167615927</v>
       </c>
       <c r="T14">
-        <v>0.001381347147840522</v>
+        <v>0.1390658167615927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.009064</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H15">
-        <v>75.02719199999999</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I15">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J15">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04400233333333333</v>
+        <v>0.125446</v>
       </c>
       <c r="N15">
-        <v>0.132007</v>
+        <v>0.376338</v>
       </c>
       <c r="O15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P15">
-        <v>0.004001371791509515</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q15">
-        <v>1.100457170482666</v>
+        <v>4.153883320504666</v>
       </c>
       <c r="R15">
-        <v>9.904114534343996</v>
+        <v>37.384949884542</v>
       </c>
       <c r="S15">
-        <v>0.0006460243992084765</v>
+        <v>0.002334762916155947</v>
       </c>
       <c r="T15">
-        <v>0.0006460243992084765</v>
+        <v>0.002334762916155947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.009064</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H16">
-        <v>75.02719199999999</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I16">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J16">
-        <v>0.1614507306167529</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.040985</v>
+        <v>0.148662</v>
       </c>
       <c r="N16">
-        <v>6.122955</v>
+        <v>0.445986</v>
       </c>
       <c r="O16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P16">
-        <v>0.1855978805493811</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q16">
-        <v>51.04312448803999</v>
+        <v>4.922632863485999</v>
       </c>
       <c r="R16">
-        <v>459.3881203923599</v>
+        <v>44.30369577137399</v>
       </c>
       <c r="S16">
-        <v>0.0299649134156184</v>
+        <v>0.002766852068950587</v>
       </c>
       <c r="T16">
-        <v>0.0299649134156184</v>
+        <v>0.002766852068950587</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.24392533333333</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H17">
-        <v>63.731776</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I17">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J17">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.692291666666666</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N17">
-        <v>26.076875</v>
+        <v>0.047879</v>
       </c>
       <c r="O17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P17">
-        <v>0.7904374164682153</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q17">
-        <v>184.6583951422222</v>
+        <v>0.5284711602401111</v>
       </c>
       <c r="R17">
-        <v>1661.92555628</v>
+        <v>4.756240442160999</v>
       </c>
       <c r="S17">
-        <v>0.1084038815688144</v>
+        <v>0.0002970364769505885</v>
       </c>
       <c r="T17">
-        <v>0.1084038815688144</v>
+        <v>0.0002970364769505885</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.24392533333333</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H18">
-        <v>63.731776</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I18">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J18">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.125446</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N18">
-        <v>0.376338</v>
+        <v>6.437662</v>
       </c>
       <c r="O18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P18">
-        <v>0.01140748791558863</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q18">
-        <v>2.664965457365333</v>
+        <v>71.0565948823842</v>
       </c>
       <c r="R18">
-        <v>23.984689116288</v>
+        <v>639.5093539414578</v>
       </c>
       <c r="S18">
-        <v>0.001564470435274337</v>
+        <v>0.03993860440440859</v>
       </c>
       <c r="T18">
-        <v>0.001564470435274337</v>
+        <v>0.0399386044044086</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.24392533333333</v>
+        <v>33.11291966666666</v>
       </c>
       <c r="H19">
-        <v>63.731776</v>
+        <v>99.33875899999998</v>
       </c>
       <c r="I19">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="J19">
-        <v>0.1371441676599497</v>
+        <v>0.185573847618852</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.09408700000000002</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N19">
-        <v>0.282261</v>
+        <v>0.188716</v>
       </c>
       <c r="O19">
-        <v>0.00855584327530561</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P19">
-        <v>0.008555843275305609</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q19">
-        <v>1.998777202837334</v>
+        <v>2.082979249271555</v>
       </c>
       <c r="R19">
-        <v>17.988994825536</v>
+        <v>18.746813243444</v>
       </c>
       <c r="S19">
-        <v>0.001173384004620766</v>
+        <v>0.00117077499079361</v>
       </c>
       <c r="T19">
-        <v>0.001173384004620766</v>
+        <v>0.00117077499079361</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.24392533333333</v>
+        <v>11.86691</v>
       </c>
       <c r="H20">
-        <v>63.731776</v>
+        <v>35.60073</v>
       </c>
       <c r="I20">
-        <v>0.1371441676599497</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J20">
-        <v>0.1371441676599497</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.04400233333333333</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N20">
-        <v>0.132007</v>
+        <v>22.415874</v>
       </c>
       <c r="O20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P20">
-        <v>0.004001371791509515</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q20">
-        <v>0.9347822838257778</v>
+        <v>88.66905310977999</v>
       </c>
       <c r="R20">
-        <v>8.413040554431998</v>
+        <v>798.02147798802</v>
       </c>
       <c r="S20">
-        <v>0.0005487648038445743</v>
+        <v>0.04983799520546593</v>
       </c>
       <c r="T20">
-        <v>0.0005487648038445742</v>
+        <v>0.04983799520546593</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.24392533333333</v>
+        <v>11.86691</v>
       </c>
       <c r="H21">
-        <v>63.731776</v>
+        <v>35.60073</v>
       </c>
       <c r="I21">
-        <v>0.1371441676599497</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J21">
-        <v>0.1371441676599497</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.040985</v>
+        <v>0.125446</v>
       </c>
       <c r="N21">
-        <v>6.122955</v>
+        <v>0.376338</v>
       </c>
       <c r="O21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P21">
-        <v>0.1855978805493811</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q21">
-        <v>43.35853294645334</v>
+        <v>1.48865639186</v>
       </c>
       <c r="R21">
-        <v>390.22679651808</v>
+        <v>13.39790752674</v>
       </c>
       <c r="S21">
-        <v>0.02545366684739564</v>
+        <v>0.0008367254134117027</v>
       </c>
       <c r="T21">
-        <v>0.02545366684739563</v>
+        <v>0.0008367254134117027</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.85207866666667</v>
+        <v>11.86691</v>
       </c>
       <c r="H22">
-        <v>89.556236</v>
+        <v>35.60073</v>
       </c>
       <c r="I22">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J22">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>8.692291666666666</v>
+        <v>0.148662</v>
       </c>
       <c r="N22">
-        <v>26.076875</v>
+        <v>0.445986</v>
       </c>
       <c r="O22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P22">
-        <v>0.7904374164682153</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q22">
-        <v>259.4829746269444</v>
+        <v>1.76415857442</v>
       </c>
       <c r="R22">
-        <v>2335.3467716425</v>
+        <v>15.87742716978</v>
       </c>
       <c r="S22">
-        <v>0.1523297201241151</v>
+        <v>0.0009915762432330286</v>
       </c>
       <c r="T22">
-        <v>0.1523297201241151</v>
+        <v>0.0009915762432330289</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,61 +1845,61 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.85207866666667</v>
+        <v>11.86691</v>
       </c>
       <c r="H23">
-        <v>89.556236</v>
+        <v>35.60073</v>
       </c>
       <c r="I23">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J23">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>0.125446</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N23">
-        <v>0.376338</v>
+        <v>0.047879</v>
       </c>
       <c r="O23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P23">
-        <v>0.01140748791558863</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q23">
-        <v>3.744823860418666</v>
+        <v>0.1893919279633333</v>
       </c>
       <c r="R23">
-        <v>33.70341474376799</v>
+        <v>1.70452735167</v>
       </c>
       <c r="S23">
-        <v>0.002198402309021661</v>
+        <v>0.0001064510521625212</v>
       </c>
       <c r="T23">
-        <v>0.00219840230902166</v>
+        <v>0.0001064510521625212</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.85207866666667</v>
+        <v>11.86691</v>
       </c>
       <c r="H24">
-        <v>89.556236</v>
+        <v>35.60073</v>
       </c>
       <c r="I24">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J24">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09408700000000002</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N24">
-        <v>0.282261</v>
+        <v>6.437662</v>
       </c>
       <c r="O24">
-        <v>0.00855584327530561</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P24">
-        <v>0.008555843275305609</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q24">
-        <v>2.808692525510667</v>
+        <v>25.46505185480666</v>
       </c>
       <c r="R24">
-        <v>25.278232729596</v>
+        <v>229.18546669326</v>
       </c>
       <c r="S24">
-        <v>0.001648845543492188</v>
+        <v>0.01431307866427203</v>
       </c>
       <c r="T24">
-        <v>0.001648845543492188</v>
+        <v>0.01431307866427203</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.85207866666667</v>
+        <v>11.86691</v>
       </c>
       <c r="H25">
-        <v>89.556236</v>
+        <v>35.60073</v>
       </c>
       <c r="I25">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="J25">
-        <v>0.1927157254330716</v>
+        <v>0.06650540544944691</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.04400233333333333</v>
+        <v>0.06290533333333333</v>
       </c>
       <c r="N25">
-        <v>0.132007</v>
+        <v>0.188716</v>
       </c>
       <c r="O25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="P25">
-        <v>0.004001371791509515</v>
+        <v>0.006308943883074792</v>
       </c>
       <c r="Q25">
-        <v>1.313561116183555</v>
+        <v>0.7464919291866665</v>
       </c>
       <c r="R25">
-        <v>11.822050045652</v>
+        <v>6.71842736268</v>
       </c>
       <c r="S25">
-        <v>0.0007711272675281857</v>
+        <v>0.000419578870901697</v>
       </c>
       <c r="T25">
-        <v>0.0007711272675281856</v>
+        <v>0.000419578870901697</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.85207866666667</v>
+        <v>33.60696333333333</v>
       </c>
       <c r="H26">
-        <v>89.556236</v>
+        <v>100.82089</v>
       </c>
       <c r="I26">
-        <v>0.1927157254330716</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="J26">
-        <v>0.1927157254330716</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,33 +2049,33 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.040985</v>
+        <v>7.471958000000001</v>
       </c>
       <c r="N26">
-        <v>6.122955</v>
+        <v>22.415874</v>
       </c>
       <c r="O26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="P26">
-        <v>0.1855978805493811</v>
+        <v>0.7493826233921622</v>
       </c>
       <c r="Q26">
-        <v>60.92764477748667</v>
+        <v>251.1098185342067</v>
       </c>
       <c r="R26">
-        <v>548.3488029973799</v>
+        <v>2259.98836680786</v>
       </c>
       <c r="S26">
-        <v>0.03576763018891455</v>
+        <v>0.1411406741499629</v>
       </c>
       <c r="T26">
-        <v>0.03576763018891455</v>
+        <v>0.1411406741499629</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>24.448671</v>
+        <v>33.60696333333333</v>
       </c>
       <c r="H27">
-        <v>73.346013</v>
+        <v>100.82089</v>
       </c>
       <c r="I27">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="J27">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>8.692291666666666</v>
+        <v>0.125446</v>
       </c>
       <c r="N27">
-        <v>26.076875</v>
+        <v>0.376338</v>
       </c>
       <c r="O27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="P27">
-        <v>0.7904374164682153</v>
+        <v>0.01258131437222388</v>
       </c>
       <c r="Q27">
-        <v>212.514979194375</v>
+        <v>4.215859122313334</v>
       </c>
       <c r="R27">
-        <v>1912.634812749375</v>
+        <v>37.94273210082</v>
       </c>
       <c r="S27">
-        <v>0.1247571149876119</v>
+        <v>0.002369597501674427</v>
       </c>
       <c r="T27">
-        <v>0.1247571149876119</v>
+        <v>0.002369597501674427</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>24.448671</v>
+        <v>33.60696333333333</v>
       </c>
       <c r="H28">
-        <v>73.346013</v>
+        <v>100.82089</v>
       </c>
       <c r="I28">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="J28">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2173,33 +2173,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.125446</v>
+        <v>0.148662</v>
       </c>
       <c r="N28">
-        <v>0.376338</v>
+        <v>0.445986</v>
       </c>
       <c r="O28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="P28">
-        <v>0.01140748791558863</v>
+        <v>0.01490970901585978</v>
       </c>
       <c r="Q28">
-        <v>3.066987982265999</v>
+        <v>4.99607838306</v>
       </c>
       <c r="R28">
-        <v>27.602891840394</v>
+        <v>44.96470544754</v>
       </c>
       <c r="S28">
-        <v>0.001800478130152017</v>
+        <v>0.002808133410343283</v>
       </c>
       <c r="T28">
-        <v>0.001800478130152016</v>
+        <v>0.002808133410343284</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>24.448671</v>
+        <v>33.60696333333333</v>
       </c>
       <c r="H29">
-        <v>73.346013</v>
+        <v>100.82089</v>
       </c>
       <c r="I29">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="J29">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,33 +2235,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>0.09408700000000002</v>
+        <v>0.01595966666666667</v>
       </c>
       <c r="N29">
-        <v>0.282261</v>
+        <v>0.047879</v>
       </c>
       <c r="O29">
-        <v>0.00855584327530561</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="P29">
-        <v>0.008555843275305609</v>
+        <v>0.001600637593938712</v>
       </c>
       <c r="Q29">
-        <v>2.300302108377001</v>
+        <v>0.5363559324788889</v>
       </c>
       <c r="R29">
-        <v>20.702718975393</v>
+        <v>4.82720339231</v>
       </c>
       <c r="S29">
-        <v>0.001350394479151291</v>
+        <v>0.0003014682513662449</v>
       </c>
       <c r="T29">
-        <v>0.001350394479151291</v>
+        <v>0.0003014682513662449</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,108 +2279,480 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>24.448671</v>
+        <v>33.60696333333333</v>
       </c>
       <c r="H30">
-        <v>73.346013</v>
+        <v>100.82089</v>
       </c>
       <c r="I30">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="J30">
-        <v>0.1578330078870052</v>
+        <v>0.1883426032899912</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04400233333333333</v>
+        <v>2.145887333333333</v>
       </c>
       <c r="N30">
-        <v>0.132007</v>
+        <v>6.437662</v>
       </c>
       <c r="O30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="P30">
-        <v>0.004001371791509515</v>
+        <v>0.2152167717427406</v>
       </c>
       <c r="Q30">
-        <v>1.075798570899</v>
+        <v>72.11675692879777</v>
       </c>
       <c r="R30">
-        <v>9.682187138090999</v>
+        <v>649.0508123591799</v>
       </c>
       <c r="S30">
-        <v>0.0006315485455281616</v>
+        <v>0.04053448706169557</v>
       </c>
       <c r="T30">
-        <v>0.0006315485455281615</v>
+        <v>0.04053448706169558</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>33.60696333333333</v>
+      </c>
+      <c r="H31">
+        <v>100.82089</v>
+      </c>
+      <c r="I31">
+        <v>0.1883426032899912</v>
+      </c>
+      <c r="J31">
+        <v>0.1883426032899912</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.188716</v>
+      </c>
+      <c r="O31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P31">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q31">
+        <v>2.114057230804444</v>
+      </c>
+      <c r="R31">
+        <v>19.02651507724</v>
+      </c>
+      <c r="S31">
+        <v>0.001188242914948772</v>
+      </c>
+      <c r="T31">
+        <v>0.001188242914948772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H32">
+        <v>107.687837</v>
+      </c>
+      <c r="I32">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J32">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>7.471958000000001</v>
+      </c>
+      <c r="N32">
+        <v>22.415874</v>
+      </c>
+      <c r="O32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="P32">
+        <v>0.7493826233921622</v>
+      </c>
+      <c r="Q32">
+        <v>268.2129983916153</v>
+      </c>
+      <c r="R32">
+        <v>2413.916985524538</v>
+      </c>
+      <c r="S32">
+        <v>0.1507538161181806</v>
+      </c>
+      <c r="T32">
+        <v>0.1507538161181806</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H33">
+        <v>107.687837</v>
+      </c>
+      <c r="I33">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J33">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.125446</v>
+      </c>
+      <c r="N33">
+        <v>0.376338</v>
+      </c>
+      <c r="O33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="P33">
+        <v>0.01258131437222388</v>
+      </c>
+      <c r="Q33">
+        <v>4.503002800100666</v>
+      </c>
+      <c r="R33">
+        <v>40.527025200906</v>
+      </c>
+      <c r="S33">
+        <v>0.002530991637902848</v>
+      </c>
+      <c r="T33">
+        <v>0.002530991637902848</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H34">
+        <v>107.687837</v>
+      </c>
+      <c r="I34">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J34">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.148662</v>
+      </c>
+      <c r="N34">
+        <v>0.445986</v>
+      </c>
+      <c r="O34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="P34">
+        <v>0.01490970901585978</v>
+      </c>
+      <c r="Q34">
+        <v>5.336363074697999</v>
+      </c>
+      <c r="R34">
+        <v>48.02726767228199</v>
+      </c>
+      <c r="S34">
+        <v>0.002999396384690728</v>
+      </c>
+      <c r="T34">
+        <v>0.002999396384690729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H35">
+        <v>107.687837</v>
+      </c>
+      <c r="I35">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J35">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M35">
+        <v>0.01595966666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.047879</v>
+      </c>
+      <c r="O35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="P35">
+        <v>0.001600637593938712</v>
+      </c>
+      <c r="Q35">
+        <v>0.5728873275247778</v>
+      </c>
+      <c r="R35">
+        <v>5.155985947722999</v>
+      </c>
+      <c r="S35">
+        <v>0.0003220013621562277</v>
+      </c>
+      <c r="T35">
+        <v>0.0003220013621562278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>24.448671</v>
-      </c>
-      <c r="H31">
-        <v>73.346013</v>
-      </c>
-      <c r="I31">
-        <v>0.1578330078870052</v>
-      </c>
-      <c r="J31">
-        <v>0.1578330078870052</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>2.040985</v>
-      </c>
-      <c r="N31">
-        <v>6.122955</v>
-      </c>
-      <c r="O31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="P31">
-        <v>0.1855978805493811</v>
-      </c>
-      <c r="Q31">
-        <v>49.899370780935</v>
-      </c>
-      <c r="R31">
-        <v>449.094337028415</v>
-      </c>
-      <c r="S31">
-        <v>0.02929347174456192</v>
-      </c>
-      <c r="T31">
-        <v>0.02929347174456191</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H36">
+        <v>107.687837</v>
+      </c>
+      <c r="I36">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J36">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.145887333333333</v>
+      </c>
+      <c r="N36">
+        <v>6.437662</v>
+      </c>
+      <c r="O36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="P36">
+        <v>0.2152167717427406</v>
+      </c>
+      <c r="Q36">
+        <v>77.02865512412154</v>
+      </c>
+      <c r="R36">
+        <v>693.2578961170939</v>
+      </c>
+      <c r="S36">
+        <v>0.04329530552228294</v>
+      </c>
+      <c r="T36">
+        <v>0.04329530552228295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>35.89594566666666</v>
+      </c>
+      <c r="H37">
+        <v>107.687837</v>
+      </c>
+      <c r="I37">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="J37">
+        <v>0.20117068559153</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.06290533333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.188716</v>
+      </c>
+      <c r="O37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="P37">
+        <v>0.006308943883074792</v>
+      </c>
+      <c r="Q37">
+        <v>2.258046427476888</v>
+      </c>
+      <c r="R37">
+        <v>20.322417847292</v>
+      </c>
+      <c r="S37">
+        <v>0.001269174566316645</v>
+      </c>
+      <c r="T37">
+        <v>0.001269174566316646</v>
       </c>
     </row>
   </sheetData>
